--- a/profs/xlsx/Расписание Захарян Рамаз Рафаэлович.xlsx
+++ b/profs/xlsx/Расписание Захарян Рамаз Рафаэлович.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t xml:space="preserve">Расписание на осенний семестр 2018/19 года обучения
 для преподавателя Захарян Р.Р.</t>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t xml:space="preserve">Вторник</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд.308(3), Измерительные преобразователи летательных аппаратов, ЛР, М3О-309Б-16 (04.09-02.10) </t>
   </si>
   <si>
     <t xml:space="preserve">Среда</t>
@@ -403,32 +400,28 @@
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="C9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -440,19 +433,19 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" s="5"/>
     </row>
     <row r="11" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -473,21 +466,21 @@
     </row>
     <row r="13" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="G13" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H13" s="5"/>
     </row>
@@ -496,10 +489,10 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -507,17 +500,17 @@
     </row>
     <row r="15" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15" s="5"/>
     </row>
@@ -533,7 +526,7 @@
     </row>
     <row r="17" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -560,13 +553,13 @@
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="47">
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -579,6 +572,8 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>

--- a/profs/xlsx/Расписание Захарян Рамаз Рафаэлович.xlsx
+++ b/profs/xlsx/Расписание Захарян Рамаз Рафаэлович.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="0" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -315,8 +315,8 @@
   </sheetPr>
   <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
